--- a/data/locations.xlsx
+++ b/data/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC092BE-1EDD-4B7F-A9FA-764FD79C1CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14055262-54AD-4903-9066-8B9790B887DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/locations.xlsx
+++ b/data/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenten\GitHub\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14055262-54AD-4903-9066-8B9790B887DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1DF18-403C-46C5-A8F0-76FB84BDEA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
